--- a/docs/respostas_danos_ambientais_df_parte0.xlsx
+++ b/docs/respostas_danos_ambientais_df_parte0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>valor_multa_diaria</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_referencia</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -564,12 +569,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Desmatamento</t>
+          <t>Depósito irregular de madeira</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Depósito irregular de 288,03 metros cúbicos de madeira em tora sem licença válida, constatado em 30/04/2016.</t>
+          <t>A empresa mantinha em depósito 288,03 metros cúbicos de madeira em tora sem licença válida.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -595,8 +600,10 @@
           <t>Custas Judiciais e Acordos</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -606,6 +613,11 @@
       <c r="R2" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/0cacd6d80c499ae25dcb85380a07c3dd.pdf</t>
         </is>
       </c>
     </row>
@@ -648,12 +660,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Desmatamento de APP</t>
+          <t>Desmatamento de vegetação nativa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Destruição de 121,15 hectares de floresta nativa na Amazônia sem autorização, embargando a área para evitar uso com bovinos e buscando regeneração natural.</t>
+          <t>Destruição de 121,15 hectares de floresta nativa no bioma amazônico sem autorização da autoridade ambiental.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -690,6 +702,11 @@
       <c r="R3" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/90df1f9ac9917f6df4b9f91915b3a8bd.pdf</t>
         </is>
       </c>
     </row>
@@ -732,7 +749,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Lançamento e queima de rejeitos de indústria madeireira</t>
+          <t>Queima de Rejeitos Industriais</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -768,12 +785,17 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>24240.00</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>10000.00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/209b98634c9c4a3f7c83d1c521c5b8d6.pdf</t>
         </is>
       </c>
     </row>
@@ -821,7 +843,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Ação Civil Pública movida por desmatamento e impedimento da regeneração da cobertura florestal explorada.</t>
+          <t>Ação civil pública movida por desmatamento e impedimento da regeneração da cobertura florestal explorada.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -847,10 +869,8 @@
           <t>NULL</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -860,6 +880,11 @@
       <c r="R5" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/7cef4bd654c356d84d7a617351f802cc.pdf</t>
         </is>
       </c>
     </row>
@@ -907,7 +932,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Supressão de castanhais, poluição hídrica do Rio Itacaiúnas e Igarapé Salobo devido à atividade minerária do Projeto Salobo, impactando comunidades indígenas Xikrin.</t>
+          <t>Supressão de castanheiras, poluição hídrica do Rio Itacaiúnas e Igarapé Salobo, impactos na Floresta Nacional do Tapirapé-Aquiri e nas comunidades indígenas Xikrin.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -917,25 +942,25 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>54000</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Obrigações de Fazer (com custo)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -946,6 +971,11 @@
       <c r="R6" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/d5d876cd4f1b1b52385f1ec4df9886ba.html</t>
         </is>
       </c>
     </row>
@@ -1032,6 +1062,11 @@
           <t>100000.00</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/24586eb78e174455c03d488d6518e16c.html</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1103,10 +1138,8 @@
           <t>Custas Judiciais e Acordos</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1116,6 +1149,11 @@
       <c r="R8" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/be70db0dae0a1d1f18eb65dfd5523e76.html</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1196,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Interrupção no fornecimento de energia elétrica</t>
+          <t>Falha no fornecimento de energia elétrica</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Interrupções sucessivas e prolongadas no fornecimento de energia elétrica, causando danos materiais e morais ao usuário.</t>
+          <t>Falhas no fornecimento de energia elétrica que causaram gastos com geradores e substituição de equipamentos.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1182,7 +1220,7 @@
         </is>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1200,6 +1238,11 @@
       <c r="R9" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/5631abc57e085f5121b0ead2d78e9e85.html</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1285,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ocupação Irregular de Terreno</t>
+          <t>Ocupação Irregular de Terreno de Marinha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ocupação irregular de barraca de praia em terreno de marinha, sem licença, impactando o acesso público e o meio ambiente local.</t>
+          <t>Ocupação irregular de barraca de praia em terreno de marinha, sem licença, impactando o acesso público e o meio ambiente.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1262,7 +1305,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="N10" t="b">
@@ -1274,7 +1317,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1284,6 +1327,11 @@
       <c r="R10" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/a322a1e63179ad2a721b9268801dbfb6.pdf</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1379,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Emissão de ruídos acima dos limites permitidos pela NBR 10.151, causando perturbação aos moradores vizinhos.</t>
+          <t>Emissão de som em violação aos limites de horário e decibéis permitidos pela legislação, causando transtornos aos moradores do entorno.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1350,15 +1398,17 @@
         </is>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Multas Administrativas</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1367,7 +1417,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/f8941539197bdd583e3bdd448abb2e6c.html</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1465,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Publicidade Enganosa e Atraso na Entrega de Imóvel</t>
+          <t>Descumprimento de contrato</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Atraso de 339 dias na entrega de imóvel e divergências entre o prometido na venda e o entregue, incluindo mobiliário e áreas de convivência em desacordo.</t>
+          <t>Atraso na entrega de imóvel e divergências entre o que foi vendido e o que foi efetivamente entregue, causando prejuízos aos compradores.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>29/12/2013</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1434,7 +1489,7 @@
         </is>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1452,6 +1507,11 @@
       <c r="R12" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/c7fac8749343a02deddd5dfdcb5092e1.html</t>
         </is>
       </c>
     </row>
@@ -1494,17 +1554,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Infraestrutura Irregular</t>
+          <t>Danos ao sistema de saneamento</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Atraso na entrega de obras de infraestrutura, especificamente a rede de distribuição de água potável, causando transtornos ao comprador do lote.</t>
+          <t>Atraso na entrega de infraestrutura básica, como rede de água potável, resultando em uso de poço artesiano pelo comprador e falta de rede de esgoto sanitário.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22/03/2016</t>
+          <t>07/03/2017</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1518,11 +1578,11 @@
         </is>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Obrigações de Fazer (com custo)</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1536,6 +1596,11 @@
       <c r="R13" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/179ce549bff6f6044d73c9c6f7b54d98.html</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1643,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Abastecimento Irregular de Água</t>
+          <t>Abastecimento irregular de água</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Abastecimento irregular de água afetando moradores do Bairro Jorge Texeira, com fornecimento máximo de três horas diárias, chegando a trinta minutos.</t>
+          <t>Abastecimento irregular de água no bairro Jorge Texeira, com fornecimento de água de no máximo três horas diárias, passando a trinta minutos.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1606,7 +1671,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Custas Judiciais e Acordos</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1620,6 +1685,11 @@
       <c r="R14" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/e50aea65864c6a6ca7ab8ab06025d54f.pdf</t>
         </is>
       </c>
     </row>
@@ -1662,12 +1732,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Abastecimento irregular de água</t>
+          <t>Abastecimento Irregular de Água</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Abastecimento irregular de água no Bairro Jorge Texeira, com fornecimento descontínuo e precário, afetando moradores da região.</t>
+          <t>Abastecimento de água irregular no bairro Jorge Teixeira, com fornecimento descontínuo e precário, afetando moradores e causando transtornos.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1704,6 +1774,11 @@
       <c r="R15" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/c9c4529e46b75ee5e400e42350f2b2d7.pdf</t>
         </is>
       </c>
     </row>
@@ -1746,17 +1821,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Interrupção no fornecimento de água</t>
+          <t>Poluição Hídrica</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Interrupção do fornecimento de água por 3 dias devido ao rompimento de um encanamento pertencente à empresa ré.</t>
+          <t>Interrupção no fornecimento de água por 3 dias devido ao rompimento de um encanamento.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20/02/24</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1770,7 +1845,7 @@
         </is>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1788,6 +1863,11 @@
       <c r="R16" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/4a966dbc383fe11597026e3ca7432c93.pdf</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1915,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Desmate de 11,826 hectares de Floresta Estacional Semidecidual com tipologia de regeneração do Bioma Mata Atlântica, sem a devida autorização ambiental.</t>
+          <t>Desmate de 11,826 hectares de Floresta Estacional Semidecidual, Bioma Mata Atlântica, sem autorização ambiental na Fazenda Manancial, zona rural de Águas Vermelhas.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1862,7 +1942,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1871,7 +1951,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/e448073edc85a7c3dd335c89e2c64c2e.html</t>
         </is>
       </c>
     </row>
@@ -1914,12 +1999,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Desmatamento de APP</t>
+          <t>Desmatamento de vegetação nativa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Supressão de 30 árvores nativas, depositadas em área de preservação permanente, impedindo a regeneração natural.</t>
+          <t>Supressão de 30 árvores nativas sem licença, depositadas em APP, impedindo regeneração. Regeneração natural ocorrida, mas compensação necessária.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1956,6 +2041,11 @@
       <c r="R18" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/4af9d082c1a6dd5841a9c871eb76b26b.html</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2093,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Captação irregular de água do Rio Verde para obras de loteamento, impactando a disponibilidade hídrica e APP.</t>
+          <t>Captação irregular de água do Rio Verde para obras de loteamento, causando dano ambiental pontual e de pequena monta.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2040,6 +2130,11 @@
       <c r="R19" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/cbdda0e55f226a6f1eac06b4a819d143.html</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2177,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Danos a poste de energia elétrica</t>
+          <t>Colisão de veículo contra poste de energia elétrica</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Colisão de veículo com poste de energia elétrica devido à negligência do condutor, causando danos materiais ao veículo e ao poste.</t>
+          <t>O veículo colidiu contra um poste de energia elétrica na Praça Universitária, danificando o veículo locado.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2124,6 +2219,11 @@
       <c r="R20" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/e748a98ec567a8446cf05d6974c9d6d5.html</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2271,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aterramento de nascente e intervenção em área de preservação permanente (APP) devido à instalação de atividade sem autorização.</t>
+          <t>Aterramento de nascente e intervenção em área de preservação permanente (APP) de aproximadamente 4 hectares e intervenção em curso d’água sem outorga.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2208,6 +2308,11 @@
       <c r="R21" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/02597b35d5e8ece30d36627f30550386.html</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2360,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Assoreamento do leito do Córrego Canta Galo devido a deslizamento de talude, causando erosão e prejuízo ao meio ambiente.</t>
+          <t>Assoreamento do leito do Córrego Canta Galo devido a deslizamento de talude e erosão.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2281,8 +2386,10 @@
           <t>Obrigações de Fazer (com custo)</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2292,6 +2399,11 @@
       <c r="R22" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/7d54d2fd28f74c625bb2157b3d507fe6.html</t>
         </is>
       </c>
     </row>
@@ -2376,6 +2488,11 @@
       <c r="R23" t="inlineStr">
         <is>
           <t>NULL</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>http://jud-anexos.digesto.com.br/fab3efa39a57f1d1a8bd1457980931ab.html</t>
         </is>
       </c>
     </row>

--- a/docs/respostas_danos_ambientais_df_parte0.xlsx
+++ b/docs/respostas_danos_ambientais_df_parte0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,12 +569,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Depósito irregular de madeira</t>
+          <t>Desmatamento</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A empresa mantinha em depósito 288,03 metros cúbicos de madeira em tora sem licença válida.</t>
+          <t>Depósito irregular de 288,03 metros cúbicos de madeira sem licença, com espécies nativas não identificadas e extração desconhecida.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -597,13 +597,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -660,12 +658,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Desmatamento de vegetação nativa</t>
+          <t>Desmatamento de APP</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Destruição de 121,15 hectares de floresta nativa no bioma amazônico sem autorização da autoridade ambiental.</t>
+          <t>Destruição de 121,15 hectares de floresta nativa na Amazônia sem autorização, resultando em dano ambiental e necessidade de recuperação da área.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -754,7 +752,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Lançamento e queima de rejeitos de indústria madeireira a céu aberto, em desacordo com a Licença de Operação.</t>
+          <t>A empresa lançou e queimou rejeitos de indústria madeireira a céu aberto, em desacordo com a Licença de Operação do IBAMA.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -785,7 +783,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>30360.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -843,7 +841,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Ação civil pública movida por desmatamento e impedimento da regeneração da cobertura florestal explorada.</t>
+          <t>O réu foi acusado de desmatamento e impedimento da regeneração da cobertura florestal explorada.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -932,7 +930,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Supressão de castanheiras, poluição hídrica do Rio Itacaiúnas e Igarapé Salobo, impactos na Floresta Nacional do Tapirapé-Aquiri e nas comunidades indígenas Xikrin.</t>
+          <t>Supressão de castanhais, poluição hídrica do Rio Itacaiúnas e Igarapé Salobo, impactos à fauna e flora devido à atividade minerária do Projeto Salobo.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -942,12 +940,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>54000</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="N6" t="b">
@@ -955,17 +953,15 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Obrigações de Fazer (com custo)</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Custas Judiciais e Acordos</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>1364000.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1112,7 +1108,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Lançamento de efluentes (tinta, produtos químicos e de limpeza) diretamente no solo e no Córrego Tamanduá, causando poluição hídrica.</t>
+          <t>Lançamento de efluentes (tinta, produtos químicos e de limpeza) diretamente no solo e no Córrego Tamanduá, causando poluição e danos ambientais.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1160,14 +1156,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5842003-89.2023.8.09.0074</t>
+          <t>0050002-26.2020.8.06.0035</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741569033</v>
+        <v>435827204</v>
       </c>
       <c r="C9" t="n">
-        <v>2451722545</v>
+        <v>2254516518</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1176,37 +1172,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ipameri</t>
+          <t>Aracati</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>EQUATORIAL GOIÁS DISTRIBUIDORA DE ENERGIA S.A</t>
+          <t>Oscar Noce</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Falha no fornecimento de energia elétrica</t>
+          <t>Ocupação Irregular</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Falhas no fornecimento de energia elétrica que causaram gastos com geradores e substituição de equipamentos.</t>
+          <t>Ocupação irregular de barraca de praia em área de preservação permanente, sem licença, para fins comerciais.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>09/01/2020</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1220,19 +1216,21 @@
         </is>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>38285.91</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1242,21 +1240,21 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/5631abc57e085f5121b0ead2d78e9e85.html</t>
+          <t>http://jud-anexos.digesto.com.br/a322a1e63179ad2a721b9268801dbfb6.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0050002-26.2020.8.06.0035</t>
+          <t>0002171-93.2018.8.08.0035</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435827204</v>
+        <v>654920222</v>
       </c>
       <c r="C10" t="n">
-        <v>2254516518</v>
+        <v>2583016248</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,37 +1263,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aracati</t>
+          <t>Vila Velha</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Oscar Noce</t>
+          <t>A IGREJA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ocupação Irregular de Terreno de Marinha</t>
+          <t>Poluição Sonora</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ocupação irregular de barraca de praia em terreno de marinha, sem licença, impactando o acesso público e o meio ambiente.</t>
+          <t>Emissão de som em violação aos limites de horário e decibéis permitidos pela legislação, causando perturbação aos moradores do entorno.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>09/01/2020</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1305,19 +1303,21 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Obrigações de Fazer (com custo)</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1331,21 +1331,21 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/a322a1e63179ad2a721b9268801dbfb6.pdf</t>
+          <t>http://jud-anexos.digesto.com.br/f8941539197bdd583e3bdd448abb2e6c.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0002171-93.2018.8.08.0035</t>
+          <t>5146896-05.2020.8.09.0064</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>654920222</v>
+        <v>575716037</v>
       </c>
       <c r="C11" t="n">
-        <v>2583016248</v>
+        <v>623962457</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,17 +1354,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vila Velha</t>
+          <t>Goianira</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A IGREJA</t>
+          <t>Spe Sociedade Residencial São Bernardo Ltda</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Poluição Sonora</t>
+          <t>Danos ao consumidor</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Emissão de som em violação aos limites de horário e decibéis permitidos pela legislação, causando transtornos aos moradores do entorno.</t>
+          <t>Atraso na entrega de infraestrutura básica, como rede de água potável, causando transtornos e frustração ao comprador do lote.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>07/03/2017</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1398,21 +1398,19 @@
         </is>
       </c>
       <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1422,21 +1420,21 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/f8941539197bdd583e3bdd448abb2e6c.html</t>
+          <t>http://jud-anexos.digesto.com.br/179ce549bff6f6044d73c9c6f7b54d98.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5603992-96.2021.8.09.0024</t>
+          <t>0643812-33.2015.8.04.0001</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>465369333</v>
+        <v>334295428</v>
       </c>
       <c r="C12" t="n">
-        <v>779612317</v>
+        <v>29932334</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1445,17 +1443,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Caldas Novas</t>
+          <t>Manaus</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ilhas Do Lago Incorporação Spe Ltda</t>
+          <t>Manaus Ambiental S/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1465,12 +1463,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Descumprimento de contrato</t>
+          <t>Abastecimento Irregular de Água</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Atraso na entrega de imóvel e divergências entre o que foi vendido e o que foi efetivamente entregue, causando prejuízos aos compradores.</t>
+          <t>Abastecimento irregular de água no Bairro Jorge Texeira, com fornecimento máximo de 3 horas diárias, chegando a 30 minutos, causando transtornos aos moradores.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1501,7 +1499,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>1200.00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1511,21 +1509,21 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/c7fac8749343a02deddd5dfdcb5092e1.html</t>
+          <t>http://jud-anexos.digesto.com.br/e50aea65864c6a6ca7ab8ab06025d54f.pdf</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5146896-05.2020.8.09.0064</t>
+          <t>0452292-66.2024.8.04.0001</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>575716037</v>
+        <v>576427068</v>
       </c>
       <c r="C13" t="n">
-        <v>623962457</v>
+        <v>1496081414</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,17 +1532,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Goianira</t>
+          <t>Manaus</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Spe Sociedade Residencial São Bernardo Ltda</t>
+          <t>MANAUS AMBIENTAL SA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1554,17 +1552,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Danos ao sistema de saneamento</t>
+          <t>Interrupção no Fornecimento de Água</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Atraso na entrega de infraestrutura básica, como rede de água potável, resultando em uso de poço artesiano pelo comprador e falta de rede de esgoto sanitário.</t>
+          <t>Interrupção no fornecimento de água por 3 dias devido ao rompimento de um encanamento da empresa ré.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>07/03/2017</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1578,11 +1576,11 @@
         </is>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Compensações Financeiras</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1590,7 +1588,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1600,21 +1598,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/179ce549bff6f6044d73c9c6f7b54d98.html</t>
+          <t>http://jud-anexos.digesto.com.br/4a966dbc383fe11597026e3ca7432c93.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0643812-33.2015.8.04.0001</t>
+          <t>5003034-49.2023.8.13.0487</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>334295428</v>
+        <v>653342143</v>
       </c>
       <c r="C14" t="n">
-        <v>29932334</v>
+        <v>2037844918</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1623,87 +1621,89 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Pedra Azul</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Manaus Ambiental S/A</t>
+          <t>ELCIO ALMEIDA ARAUJO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Abastecimento irregular de água</t>
+          <t>Desmatamento de APP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Abastecimento irregular de água no bairro Jorge Texeira, com fornecimento de água de no máximo três horas diárias, passando a trinta minutos.</t>
+          <t>Desmate de 11,826 hectares de Floresta Estacional Semidecidual com tipologia de regeneração do Bioma Mata Atlântica, sem a devida autorização ambiental.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>118260</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1200.00</t>
+          <t>59127.63</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/e50aea65864c6a6ca7ab8ab06025d54f.pdf</t>
+          <t>http://jud-anexos.digesto.com.br/e448073edc85a7c3dd335c89e2c64c2e.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0643841-83.2015.8.04.0001</t>
+          <t>5000271-46.2019.8.13.0348</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>402923176</v>
+        <v>690385401</v>
       </c>
       <c r="C15" t="n">
-        <v>2643510342</v>
+        <v>2349193455</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1712,32 +1712,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Jacuí</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Manaus Ambiental S/A</t>
+          <t>LUIZ BUENO DOS SANTOS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Abastecimento Irregular de Água</t>
+          <t>Desmatamento</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Abastecimento de água irregular no bairro Jorge Teixeira, com fornecimento descontínuo e precário, afetando moradores e causando transtornos.</t>
+          <t>Supressão de 30 árvores nativas sem licença, impactando a biodiversidade e impedindo a regeneração da vegetação em área de preservação permanente.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1756,19 +1756,21 @@
         </is>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>4528.76</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1778,40 +1780,40 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/c9c4529e46b75ee5e400e42350f2b2d7.pdf</t>
+          <t>http://jud-anexos.digesto.com.br/4af9d082c1a6dd5841a9c871eb76b26b.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0452292-66.2024.8.04.0001</t>
+          <t>5012579-02.2022.8.13.0707</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576427068</v>
+        <v>690454792</v>
       </c>
       <c r="C16" t="n">
-        <v>1496081414</v>
+        <v>2026165564</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>21°36’05.4” S e 45°24’56.1” O</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Varginha</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MANAUS AMBIENTAL SA</t>
+          <t>CONSTRUTORA DHARMA LTDA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1826,12 +1828,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Interrupção no fornecimento de água por 3 dias devido ao rompimento de um encanamento.</t>
+          <t>Captação irregular de água do Rio Verde para obras de loteamento, causando dano ambiental pontual e de pequena monta.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1845,7 +1847,7 @@
         </is>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1857,7 +1859,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1867,21 +1869,21 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/4a966dbc383fe11597026e3ca7432c93.pdf</t>
+          <t>http://jud-anexos.digesto.com.br/cbdda0e55f226a6f1eac06b4a819d143.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5003034-49.2023.8.13.0487</t>
+          <t>5730373-63.2024.8.09.0051</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>653342143</v>
+        <v>665118465</v>
       </c>
       <c r="C17" t="n">
-        <v>2037844918</v>
+        <v>1521765137</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,17 +1892,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pedra Azul</t>
+          <t>Goiânia</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ELCIO ALMEIDA ARAUJO</t>
+          <t>Ingrid Faria Silva</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1910,35 +1912,35 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Desmatamento de APP</t>
+          <t>Acidente de Trânsito</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Desmate de 11,826 hectares de Floresta Estacional Semidecidual, Bioma Mata Atlântica, sem autorização ambiental na Fazenda Manancial, zona rural de Águas Vermelhas.</t>
+          <t>Colisão de veículos na Avenida T-63 durante conversão, resultando em danos materiais ao veículo do requerente.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>118260</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Obrigações de Fazer (com custo)</t>
+          <t>Custas Judiciais e Acordos</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1946,7 +1948,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>59127.63</t>
+          <t>2300.00</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1956,21 +1958,21 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/e448073edc85a7c3dd335c89e2c64c2e.html</t>
+          <t>http://jud-anexos.digesto.com.br/afe9bdf6acaff828b37f419d446ff634.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5000271-46.2019.8.13.0348</t>
+          <t>5161497-55.2020.8.09.0051</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>690385401</v>
+        <v>767093657</v>
       </c>
       <c r="C18" t="n">
-        <v>2349193455</v>
+        <v>2846753752</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1979,17 +1981,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jacuí</t>
+          <t>Goiânia</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LUIZ BUENO DOS SANTOS</t>
+          <t>FRANZ AUGUSTO MARLUS RASMUSSEN RODRIGUES</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1999,17 +2001,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Desmatamento de vegetação nativa</t>
+          <t>Colisão de veículo contra poste de energia elétrica</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Supressão de 30 árvores nativas sem licença, depositadas em APP, impedindo regeneração. Regeneração natural ocorrida, mas compensação necessária.</t>
+          <t>O réu, dirigindo de forma negligente, colidiu o veículo locado contra um poste de energia elétrica na Praça Universitária em Goiânia.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>24/12/18</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2023,11 +2025,11 @@
         </is>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Obrigações de Fazer (com custo)</t>
+          <t>Custas Judiciais e Acordos</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2035,7 +2037,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4528.76</t>
+          <t>26459.25</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2045,25 +2047,25 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/4af9d082c1a6dd5841a9c871eb76b26b.html</t>
+          <t>http://jud-anexos.digesto.com.br/e748a98ec567a8446cf05d6974c9d6d5.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5012579-02.2022.8.13.0707</t>
+          <t>5007916-20.2016.8.13.0707</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>690454792</v>
+        <v>688521486</v>
       </c>
       <c r="C19" t="n">
-        <v>2026165564</v>
+        <v>1993728599</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21°36’05.4” S e 45°24’56.1” O</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2078,7 +2080,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CONSTRUTORA DHARMA LTDA</t>
+          <t>SANTA LUIZA EMPREENDIMENTOS IMOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2088,43 +2090,45 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Poluição Hídrica</t>
+          <t>Desmatamento de APP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Captação irregular de água do Rio Verde para obras de loteamento, causando dano ambiental pontual e de pequena monta.</t>
+          <t>Aterramento de nascente e intervenção em área de preservação permanente (APP) devido à instalação de atividade sem autorização ambiental.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2134,21 +2138,21 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/cbdda0e55f226a6f1eac06b4a819d143.html</t>
+          <t>http://jud-anexos.digesto.com.br/02597b35d5e8ece30d36627f30550386.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5161497-55.2020.8.09.0051</t>
+          <t>0023483-68.2016.8.13.0549</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>767093657</v>
+        <v>689986644</v>
       </c>
       <c r="C20" t="n">
-        <v>2846753752</v>
+        <v>2014041727</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2157,63 +2161,65 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Goiânia</t>
+          <t>RIO CASCA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FRANZ AUGUSTO MARLUS RASMUSSEN RODRIGUES</t>
+          <t>SAMARCO MINERAÇÃO S/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Colisão de veículo contra poste de energia elétrica</t>
+          <t>Assoreamento</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>O veículo colidiu contra um poste de energia elétrica na Praça Universitária, danificando o veículo locado.</t>
+          <t>Assoreamento do Córrego Canta Galo devido a deslizamento de talude durante a implantação da terceira linha do mineroduto.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24/12/2018</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Custas Judiciais e Acordos</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+          <t>Obrigações de Fazer (com custo)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26459.25</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2223,21 +2229,21 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/e748a98ec567a8446cf05d6974c9d6d5.html</t>
+          <t>http://jud-anexos.digesto.com.br/7d54d2fd28f74c625bb2157b3d507fe6.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5007916-20.2016.8.13.0707</t>
+          <t>0023111-22.2016.8.13.0549</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>688521486</v>
+        <v>690015926</v>
       </c>
       <c r="C21" t="n">
-        <v>1993728599</v>
+        <v>2015181666</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2251,12 +2257,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Varginha</t>
+          <t>Rio Casca</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SANTA LUIZA EMPREENDIMENTOS IMOBILIÁRIOS LTDA.</t>
+          <t>SAMARCO MINERAÇÃO S/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2266,22 +2272,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Desmatamento de APP</t>
+          <t>Erosão e Assoreamento</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aterramento de nascente e intervenção em área de preservação permanente (APP) de aproximadamente 4 hectares e intervenção em curso d’água sem outorga.</t>
+          <t>Intervenção em área de preservação permanente (APP) com erosão e assoreamento do Córrego Canta Galo devido à construção de mineroduto.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>05/03/2010</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2312,21 +2318,21 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/02597b35d5e8ece30d36627f30550386.html</t>
+          <t>http://jud-anexos.digesto.com.br/fab3efa39a57f1d1a8bd1457980931ab.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0023483-68.2016.8.13.0549</t>
+          <t>0000640-15.2017.8.11.0102</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>689986644</v>
+        <v>474475228</v>
       </c>
       <c r="C22" t="n">
-        <v>2014041727</v>
+        <v>1299854584</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,42 +2341,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rio Casca</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SAMARCO MINERAÇÃO S/A</t>
+          <t>NILSON JOÃO GIACOMELLI</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Assoreamento</t>
+          <t>Desmatamento de APP</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Assoreamento do leito do Córrego Canta Galo devido a deslizamento de talude e erosão.</t>
+          <t>Destruição de área de 2158,2727 hectares de floresta nativa na Região Amazônica, entre 2009 a 2012, sem a licença do órgão ambiental.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>21582727</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2386,113 +2392,22 @@
           <t>Obrigações de Fazer (com custo)</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="P22" t="n">
+        <v>2</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>75000.00</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>http://jud-anexos.digesto.com.br/7d54d2fd28f74c625bb2157b3d507fe6.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0023111-22.2016.8.13.0549</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>690015926</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2015181666</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Rio Casca</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>SAMARCO MINERAÇÃO S/A</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Desmatamento de APP</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Intervenção em área de preservação permanente com construção de minerodutos, causando erosão e assoreamento do Córrego Canta Galo.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>05/03/10</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Obrigações de Fazer (com custo)</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>http://jud-anexos.digesto.com.br/fab3efa39a57f1d1a8bd1457980931ab.html</t>
+          <t>http://jud-anexos.digesto.com.br/eabd85570883cfb002cdd7cd4b360502.pdf</t>
         </is>
       </c>
     </row>
